--- a/testData/audit_log.xlsx
+++ b/testData/audit_log.xlsx
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.183</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROOT部门本部门资源-非本部门人员的检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,14 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标IP/名称为172.16.10.183的检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标IP/名称为172.16.10.的检索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起始时间为2017-01-29的检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ifconfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Debian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临时部门本部门人员-非本部门资源的检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +316,26 @@
   </si>
   <si>
     <t>结果行数18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标IP/名称为172.16.20.212的检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标IP/名称为172.16.20.的检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centos</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,8 +795,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -836,43 +836,43 @@
         <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="S1" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>30</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -902,7 +902,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T2" s="1"/>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -930,21 +930,21 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -960,23 +960,23 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -985,12 +985,12 @@
       <c r="J5" s="4"/>
       <c r="K5" s="12"/>
       <c r="S5" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1011,32 +1011,32 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="18" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1048,20 +1048,20 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1078,20 +1078,20 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1108,20 +1108,20 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1129,7 +1129,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1138,20 +1138,20 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1168,20 +1168,20 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1190,7 +1190,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1198,20 +1198,20 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1221,27 +1221,27 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1252,26 +1252,26 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1283,25 +1283,25 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="18" customHeight="1">
+    <row r="16" spans="1:20" ht="16.5" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1318,39 +1318,39 @@
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="T17" s="1"/>
     </row>
